--- a/excel worksheet.xlsx
+++ b/excel worksheet.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Administrator\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{54898077-865A-4CB7-91A3-A27784DCDDFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE02A33-920A-4D26-83AC-398195423E24}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -205,7 +205,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -213,11 +213,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -526,7 +523,7 @@
   <dimension ref="A1:O21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q6" sqref="Q6"/>
+      <selection activeCell="R5" sqref="R5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,9 +533,10 @@
     <col min="13" max="13" width="9.140625" style="2"/>
     <col min="14" max="14" width="10.28515625" style="2" customWidth="1"/>
     <col min="15" max="15" width="10.140625" style="2" customWidth="1"/>
+    <col min="16" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -585,7 +583,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>11</v>
       </c>
@@ -619,7 +617,7 @@
       <c r="K2" s="2">
         <v>160</v>
       </c>
-      <c r="L2" s="4">
+      <c r="L2" s="2">
         <f t="shared" ref="L2:L21" si="0">SUM(B2:K2)</f>
         <v>1435</v>
       </c>
@@ -636,7 +634,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>12</v>
       </c>
@@ -687,7 +685,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -738,7 +736,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -789,7 +787,7 @@
         <v>1175</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>15</v>
       </c>
@@ -840,7 +838,7 @@
         <v>2025</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>16</v>
       </c>
@@ -891,7 +889,7 @@
         <v>1025</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>17</v>
       </c>
@@ -942,7 +940,7 @@
         <v>1525</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>18</v>
       </c>
@@ -993,7 +991,7 @@
         <v>1325</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>19</v>
       </c>
@@ -1044,7 +1042,7 @@
         <v>1825</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1095,7 +1093,7 @@
         <v>1125</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>21</v>
       </c>
@@ -1146,7 +1144,7 @@
         <v>1625</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>22</v>
       </c>
@@ -1197,7 +1195,7 @@
         <v>1275</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>23</v>
       </c>
@@ -1248,7 +1246,7 @@
         <v>1925</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>24</v>
       </c>
@@ -1299,7 +1297,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1350,7 +1348,7 @@
         <v>1675</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>26</v>
       </c>
@@ -1401,7 +1399,7 @@
         <v>1375</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>27</v>
       </c>
@@ -1452,7 +1450,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>28</v>
       </c>
@@ -1503,7 +1501,7 @@
         <v>1075</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>29</v>
       </c>
@@ -1554,7 +1552,7 @@
         <v>1575</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>30</v>
       </c>
